--- a/tests/find_adviser/UK postcodes — копия.xlsx
+++ b/tests/find_adviser/UK postcodes — копия.xlsx
@@ -8992,11 +8992,14 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:A2965"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A2929" workbookViewId="0">
+      <selection activeCell="S2932" sqref="S2932"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/tests/find_adviser/UK postcodes — копия.xlsx
+++ b/tests/find_adviser/UK postcodes — копия.xlsx
@@ -8992,8 +8992,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:A2965"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2929" workbookViewId="0">
-      <selection activeCell="S2932" sqref="S2932"/>
+    <sheetView tabSelected="1" topLeftCell="A913" workbookViewId="0">
+      <selection activeCell="I920" sqref="I920"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
